--- a/数据整理/stocks/A股/上证主板/603416-信捷电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/603416-信捷电气.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001182</t>
+          <t>151001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达安心回馈混合</t>
+          <t>银河稳健混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.07</t>
+          <t>13.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>74.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1288</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006942</t>
+          <t>001856</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合A</t>
+          <t>易方达环保主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>26.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006943</t>
+          <t>001182</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合C</t>
+          <t>易方达安心回馈混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>27.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7203</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>151001</t>
+          <t>003961</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河稳健混合</t>
+          <t>易方达瑞程灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>74.52</t>
+          <t>12.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6321</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010234</t>
+          <t>519655</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化增强混合C</t>
+          <t>银河现代服务主题灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5890</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>009891</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>融通产业趋势臻选股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>17.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4399</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>960041</t>
+          <t>003962</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化增强混合H</t>
+          <t>易方达瑞程灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000172</t>
+          <t>003839</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化增强混合A</t>
+          <t>易方达瑞通灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>960041</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>华泰柏瑞量化增强混合H</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>18.40</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>168207</t>
+          <t>000172</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融创业板两年定期开放混合</t>
+          <t>华泰柏瑞量化增强混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>18.40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005188</t>
+          <t>003882</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海富通量化前锋股票C</t>
+          <t>易方达瑞弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005189</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海富通量化前锋股票A</t>
+          <t>中融新经济灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>168207</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合A</t>
+          <t>中融创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001388</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合C</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005955</t>
+          <t>001701</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>易方达鑫转添利混合A</t>
+          <t>中融产业升级灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29.82</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005956</t>
+          <t>001388</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>易方达鑫转添利混合C</t>
+          <t>中融新经济灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29.82</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001701</t>
+          <t>005189</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中融产业升级灵活配置混合</t>
+          <t>海富通量化前锋股票A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001856</t>
+          <t>005188</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>易方达环保主题灵活配置混合</t>
+          <t>海富通量化前锋股票C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009891</t>
+          <t>005955</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>融通产业趋势臻选股票</t>
+          <t>易方达鑫转添利混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>75.30</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>003839</t>
+          <t>003883</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>易方达瑞通灵活配置混合A</t>
+          <t>易方达瑞弘灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>35.72</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003840</t>
+          <t>006942</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>易方达瑞通灵活配置混合C</t>
+          <t>华泰柏瑞量化明选混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>35.72</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003882</t>
+          <t>003840</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>易方达瑞弘灵活配置混合A</t>
+          <t>易方达瑞通灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>35.53</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>003883</t>
+          <t>005956</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>易方达瑞弘灵活配置混合C</t>
+          <t>易方达鑫转添利混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>35.53</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>003961</t>
+          <t>006943</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合A</t>
+          <t>华泰柏瑞量化明选混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>86.67</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,34 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>003962</t>
+          <t>010234</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合C</t>
+          <t>华泰柏瑞量化增强混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>86.67</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1192,26 +1450,34 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>519655</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>银河现代服务主题灵活配置混合</t>
+          <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8.39</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1225,7 +1491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,15 +1512,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1266,25 +1542,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001182</t>
+          <t>002351</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达安心回馈混合</t>
+          <t>易方达裕祥回报债券</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.47</t>
+          <t>341.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2081</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1294,26 +1580,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003839</t>
+          <t>001182</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达瑞通灵活配置混合A</t>
+          <t>易方达安心回馈混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.36</t>
+          <t>40.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1322,25 +1618,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003840</t>
+          <t>003961</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达瑞通灵活配置混合C</t>
+          <t>易方达瑞程灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.36</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7295</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1350,25 +1656,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003961</t>
+          <t>003962</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合A</t>
+          <t>易方达瑞程灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>91.14</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.87</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1378,25 +1694,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003962</t>
+          <t>003839</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合C</t>
+          <t>易方达瑞通灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1406,25 +1732,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010008</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中融成长优选混合A</t>
+          <t>中融新经济灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>78.30</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1434,26 +1770,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010009</t>
+          <t>168207</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融成长优选混合C</t>
+          <t>中融创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>78.30</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1462,26 +1808,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001305</t>
+          <t>010008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合A</t>
+          <t>中融成长优选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1490,26 +1846,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009912</t>
+          <t>001701</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合C</t>
+          <t>中融产业升级灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1518,26 +1884,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>001305</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合A</t>
+          <t>九泰天富改革新动力混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1546,26 +1922,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001388</t>
+          <t>005189</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合C</t>
+          <t>海富通量化前锋股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1574,26 +1960,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001701</t>
+          <t>001388</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中融产业升级灵活配置混合</t>
+          <t>中融新经济灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1602,26 +1998,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002351</t>
+          <t>005188</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达裕祥回报债券</t>
+          <t>海富通量化前锋股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>20.12</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1630,26 +2036,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005189</t>
+          <t>010009</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海富通量化前锋股票A</t>
+          <t>中融成长优选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1658,25 +2074,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005188</t>
+          <t>003840</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海富通量化前锋股票C</t>
+          <t>易方达瑞通灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1686,25 +2112,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>168207</t>
+          <t>009912</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中融创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>81.23</t>
-        </is>
-      </c>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603416-信捷电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/603416-信捷电气.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2120,7 +2121,6 @@
           <t>九泰天富改革新动力混合C</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>91.56</t>
@@ -2136,6 +2136,252 @@
       </c>
       <c r="H17" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1641</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603416-信捷电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/603416-信捷电气.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2387,4 +2388,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603416-信捷电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/603416-信捷电气.xlsx
@@ -2412,12 +2412,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603416-信捷电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/603416-信捷电气.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>5.68</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>26</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>6.35</v>
       </c>
     </row>
@@ -532,6 +549,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -777,7 +926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1434,7 +1583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603416-信捷电气.xlsx
+++ b/数据整理/stocks/A股/上证主板/603416-信捷电气.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>5.68</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>26</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.35</v>
       </c>
     </row>
@@ -549,6 +566,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -680,7 +1247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -926,7 +1493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1583,7 +2150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
